--- a/ScoreBoardCS112_Homework.xlsx
+++ b/ScoreBoardCS112_Homework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9287"/>
+    <workbookView windowWidth="22188" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Nhóm</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>Nhận xét</t>
+  </si>
+  <si>
+    <t>Chưa đưa ra được thuật toán bài 3</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Chưa làm được câu 3</t>
+  </si>
+  <si>
+    <t>Chưa đưa ra được thuật toán câu c bài 3, câu b, c bài 1 sai trong quá trình làm dẫn đến kết quả sai</t>
+  </si>
+  <si>
+    <t>Chưa đưa ra được thuật toán câu c bài 3, câu b bài 3 chưa giải thích rõ ràng.</t>
   </si>
   <si>
     <t>Link bài làm các nhóm</t>
@@ -675,10 +693,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,7 +1026,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1012,7 +1034,7 @@
     <col min="6" max="6" width="15.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1050,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1046,8 +1071,11 @@
         <f>SUM(B2,C2,D2)</f>
         <v>9.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1064,8 +1092,11 @@
         <f t="shared" ref="E3:E17" si="0">SUM(B3,C3,D3)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1082,8 +1113,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1100,8 +1134,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1118,8 +1155,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1130,14 +1170,17 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1154,8 +1197,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1172,8 +1218,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1190,26 +1239,32 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>9.25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1226,6 +1281,9 @@
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -1244,9 +1302,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1263,8 +1323,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1281,8 +1344,11 @@
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1299,8 +1365,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1317,19 +1386,23 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1" display="Link bài làm các nhóm"/>
